--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Black Petrel_New Zealand.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Black Petrel_New Zealand.xlsx
@@ -5921,13 +5921,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{833A0489-1448-496D-B5AA-C368E4E14F93}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E47DBCA6-D73F-48D1-804B-899659A43682}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{756AFEC7-D5B2-49FE-B5EB-138275F5CC47}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A20AC03-6CBF-45C7-8957-42DE6E80BCAE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE4BC3E-27B2-46C9-989B-ABD3C64F61DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA354DDB-8699-4E04-B46C-5CB0A147AD0E}"/>
 </file>